--- a/Results/Categorization/dp-partial-elmo.xlsx
+++ b/Results/Categorization/dp-partial-elmo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1842">
   <si>
     <t>id</t>
   </si>
@@ -4027,360 +4027,339 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
@@ -4400,9 +4379,6 @@
   </si>
   <si>
     <t>SERVICE|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
@@ -5967,13 +5943,13 @@
         <v>1276</v>
       </c>
       <c r="F2" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="H2" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5993,13 +5969,13 @@
         <v>1277</v>
       </c>
       <c r="F3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="H3" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6019,13 +5995,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="H4" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6045,13 +6021,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="H5" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6071,13 +6047,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="H6" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6097,13 +6073,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="H7" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6123,13 +6099,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="H8" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6149,13 +6125,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1342</v>
+        <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="H9" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6175,13 +6151,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="H10" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6201,13 +6177,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1343</v>
+        <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="H11" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6227,13 +6203,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="H12" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6253,13 +6229,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G13" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="H13" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6279,13 +6255,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="H14" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6305,13 +6281,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="H15" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6331,13 +6307,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="H16" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6357,13 +6333,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="H17" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6383,13 +6359,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="H18" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6409,7 +6385,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6435,7 +6411,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6461,7 +6437,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6481,13 +6457,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G22" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="H22" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6507,13 +6483,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="H23" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6539,7 +6515,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6559,13 +6535,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G25" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="H25" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6585,13 +6561,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G26" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="H26" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6617,7 +6593,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6637,13 +6613,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="H28" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6663,13 +6639,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="G29" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="H29" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6689,13 +6665,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G30" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="H30" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6715,13 +6691,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G31" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="H31" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6747,7 +6723,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6773,7 +6749,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6799,7 +6775,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6819,13 +6795,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G35" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="H35" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6845,13 +6821,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="G36" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="H36" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6877,7 +6853,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6897,13 +6873,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1358</v>
+        <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="H38" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6923,13 +6899,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="G39" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="H39" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6949,13 +6925,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="H40" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6975,13 +6951,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="H41" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7001,13 +6977,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G42" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="H42" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7027,13 +7003,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G43" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="H43" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7059,7 +7035,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7079,13 +7055,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G45" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="H45" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7105,13 +7081,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G46" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="H46" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7131,13 +7107,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="H47" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7163,7 +7139,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7183,13 +7159,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="H49" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7209,13 +7185,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="G50" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="H50" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7235,13 +7211,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G51" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="H51" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7261,13 +7237,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G52" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="H52" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7287,13 +7263,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G53" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="H53" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7313,13 +7289,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="H54" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7339,13 +7315,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="G55" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="H55" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7365,13 +7341,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="G56" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="H56" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7391,13 +7367,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G57" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="H57" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7417,13 +7393,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G58" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="H58" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7443,13 +7419,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="G59" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="H59" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7469,13 +7445,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G60" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="H60" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7495,13 +7471,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G61" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="H61" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7521,13 +7497,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="H62" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7547,13 +7523,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G63" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="H63" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7573,13 +7549,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="H64" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7605,7 +7581,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7625,13 +7601,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G66" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="H66" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7651,13 +7627,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="H67" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7677,13 +7653,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="H68" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7706,10 +7682,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="H69" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7729,13 +7705,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G70" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="H70" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7755,13 +7731,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="G71" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="H71" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7781,13 +7757,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="G72" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="H72" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7813,7 +7789,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7833,13 +7809,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G74" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="H74" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7859,13 +7835,13 @@
         <v>1276</v>
       </c>
       <c r="F75" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="H75" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7885,13 +7861,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G76" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="H76" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7911,13 +7887,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G77" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="H77" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7937,13 +7913,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G78" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="H78" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7963,13 +7939,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="H79" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7995,7 +7971,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8015,13 +7991,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="H81" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8047,7 +8023,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8073,7 +8049,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8093,13 +8069,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="G84" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="H84" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8119,13 +8095,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="H85" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8145,13 +8121,13 @@
         <v>1278</v>
       </c>
       <c r="F86" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="H86" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8171,13 +8147,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G87" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="H87" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8197,13 +8173,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G88" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="H88" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8223,13 +8199,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G89" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="H89" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8249,13 +8225,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="G90" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="H90" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8275,13 +8251,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="G91" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="H91" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8301,13 +8277,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="G92" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="H92" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8327,13 +8303,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G93" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="H93" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8353,13 +8329,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G94" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="H94" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8379,13 +8355,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G95" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="H95" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8405,13 +8381,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="G96" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="H96" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8431,13 +8407,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G97" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="H97" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8457,13 +8433,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G98" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="H98" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8483,13 +8459,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="H99" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8509,13 +8485,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="H100" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8535,13 +8511,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="H101" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8564,10 +8540,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="H102" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8587,13 +8563,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G103" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="H103" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8613,13 +8589,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="G104" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="H104" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8645,7 +8621,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8665,13 +8641,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="H106" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8691,13 +8667,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G107" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="H107" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8717,13 +8693,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="G108" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="H108" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8746,10 +8722,10 @@
         <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="H109" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8775,7 +8751,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8801,7 +8777,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8821,13 +8797,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G112" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="H112" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8847,13 +8823,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G113" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="H113" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8879,7 +8855,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8899,13 +8875,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="G115" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="H115" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8925,13 +8901,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="G116" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="H116" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8951,13 +8927,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G117" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="H117" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8977,13 +8953,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="G118" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="H118" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9003,13 +8979,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G119" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="H119" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9029,13 +9005,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="G120" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="H120" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9055,13 +9031,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="G121" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="H121" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9087,7 +9063,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9107,13 +9083,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G123" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="H123" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9139,7 +9115,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9159,13 +9135,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="G125" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="H125" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9185,13 +9161,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="H126" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9211,13 +9187,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="H127" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9243,7 +9219,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9263,13 +9239,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G129" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="H129" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9289,13 +9265,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G130" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="H130" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9315,13 +9291,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G131" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="H131" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9347,7 +9323,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9373,7 +9349,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9393,13 +9369,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G134" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="H134" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9419,13 +9395,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="G135" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="H135" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9445,13 +9421,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G136" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="H136" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9471,13 +9447,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G137" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="H137" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9503,7 +9479,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9523,13 +9499,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="G139" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="H139" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9549,13 +9525,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G140" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="H140" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9575,13 +9551,13 @@
         <v>1278</v>
       </c>
       <c r="F141" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="H141" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9601,13 +9577,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="G142" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="H142" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9627,13 +9603,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="G143" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="H143" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9653,13 +9629,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="G144" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="H144" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9679,13 +9655,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="G145" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="H145" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9705,13 +9681,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="G146" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="H146" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9731,13 +9707,13 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="H147" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9757,13 +9733,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="G148" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="H148" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9783,13 +9759,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="H149" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9809,13 +9785,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G150" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="H150" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9835,13 +9811,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="G151" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="H151" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9861,13 +9837,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G152" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="H152" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9887,13 +9863,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="G153" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="H153" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9913,13 +9889,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G154" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="H154" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9939,13 +9915,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G155" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="H155" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9971,7 +9947,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9991,13 +9967,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G157" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="H157" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10017,13 +9993,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G158" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="H158" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10049,7 +10025,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10075,7 +10051,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10101,7 +10077,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10127,7 +10103,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10147,13 +10123,13 @@
         <v>1278</v>
       </c>
       <c r="F163" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="H163" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10179,7 +10155,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10199,13 +10175,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="G165" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="H165" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10228,10 +10204,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="H166" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10251,13 +10227,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G167" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="H167" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10277,13 +10253,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="G168" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="H168" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10309,7 +10285,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10332,10 +10308,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="H170" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10355,13 +10331,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G171" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="H171" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10381,13 +10357,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="H172" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10407,13 +10383,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="H173" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10433,13 +10409,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G174" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="H174" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10459,13 +10435,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G175" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="H175" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10485,13 +10461,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G176" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="H176" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10511,13 +10487,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G177" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="H177" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10537,13 +10513,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G178" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="H178" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10563,13 +10539,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="G179" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="H179" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10589,13 +10565,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1345</v>
+        <v>1393</v>
       </c>
       <c r="G180" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="H180" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10615,13 +10591,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G181" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="H181" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10641,13 +10617,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="G182" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="H182" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10667,13 +10643,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G183" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="H183" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10693,13 +10669,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G184" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="H184" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10719,13 +10695,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G185" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="H185" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10751,7 +10727,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10777,7 +10753,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10803,7 +10779,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10829,7 +10805,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10855,7 +10831,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10875,13 +10851,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1398</v>
+        <v>1358</v>
       </c>
       <c r="G191" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="H191" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10901,13 +10877,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G192" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="H192" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10927,13 +10903,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="G193" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="H193" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10953,13 +10929,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="H194" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10985,7 +10961,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11011,7 +10987,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11037,7 +11013,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11057,7 +11033,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11077,13 +11053,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1400</v>
+        <v>1343</v>
       </c>
       <c r="G199" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="H199" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11109,7 +11085,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11129,13 +11105,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G201" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="H201" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11155,13 +11131,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="G202" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="H202" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11187,7 +11163,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11207,13 +11183,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1380</v>
+        <v>1337</v>
       </c>
       <c r="G204" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="H204" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11233,13 +11209,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="H205" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11259,13 +11235,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="G206" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="H206" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11285,13 +11261,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="G207" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="H207" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11311,13 +11287,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="G208" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="H208" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11337,13 +11313,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G209" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="H209" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11366,10 +11342,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="H210" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11389,13 +11365,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="G211" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="H211" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11415,13 +11391,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G212" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="H212" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11447,7 +11423,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11467,13 +11443,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1348</v>
+        <v>1400</v>
       </c>
       <c r="G214" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="H214" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11493,13 +11469,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="G215" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="H215" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11519,13 +11495,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="G216" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="H216" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11545,13 +11521,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G217" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="H217" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11571,13 +11547,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G218" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="H218" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11597,13 +11573,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="G219" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="H219" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11623,13 +11599,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="G220" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="H220" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11649,13 +11625,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="G221" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="H221" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11675,13 +11651,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G222" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="H222" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11701,13 +11677,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="G223" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="H223" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11727,13 +11703,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="G224" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="H224" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11759,7 +11735,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11779,13 +11755,13 @@
         <v>1276</v>
       </c>
       <c r="F226" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="H226" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11805,13 +11781,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G227" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="H227" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11834,10 +11810,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="H228" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11863,7 +11839,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11883,13 +11859,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="H230" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11909,13 +11885,13 @@
         <v>1276</v>
       </c>
       <c r="F231" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="H231" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11938,10 +11914,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="H232" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11961,13 +11937,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G233" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="H233" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11987,13 +11963,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G234" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="H234" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12013,13 +11989,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G235" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="H235" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12039,13 +12015,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="G236" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="H236" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12065,13 +12041,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="G237" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="H237" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12091,13 +12067,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="G238" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="H238" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12117,13 +12093,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G239" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="H239" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12143,13 +12119,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="G240" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="H240" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12169,13 +12145,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1370</v>
+        <v>1344</v>
       </c>
       <c r="G241" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="H241" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12195,13 +12171,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="G242" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="H242" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12227,7 +12203,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12253,7 +12229,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12279,7 +12255,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12305,7 +12281,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12325,13 +12301,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G247" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="H247" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12351,13 +12327,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="G248" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="H248" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12377,13 +12353,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G249" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="H249" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12403,13 +12379,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="H250" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12429,13 +12405,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G251" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="H251" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12461,7 +12437,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12481,13 +12457,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G253" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="H253" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12513,7 +12489,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12533,13 +12509,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="G255" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="H255" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12562,10 +12538,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="H256" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12585,13 +12561,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="H257" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12611,13 +12587,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="G258" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="H258" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12637,13 +12613,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G259" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="H259" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12666,10 +12642,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="H260" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12695,7 +12671,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12721,7 +12697,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12741,13 +12717,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G263" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="H263" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12773,7 +12749,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12793,13 +12769,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="G265" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="H265" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12819,13 +12795,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G266" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="H266" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12845,13 +12821,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G267" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="H267" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12871,13 +12847,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1421</v>
+        <v>1382</v>
       </c>
       <c r="G268" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="H268" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12897,13 +12873,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1422</v>
+        <v>1373</v>
       </c>
       <c r="G269" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="H269" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12923,13 +12899,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1342</v>
+        <v>1415</v>
       </c>
       <c r="G270" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="H270" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12949,13 +12925,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G271" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="H271" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12975,13 +12951,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="G272" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="H272" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13001,13 +12977,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1424</v>
+        <v>1345</v>
       </c>
       <c r="G273" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="H273" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13027,13 +13003,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G274" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="H274" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13053,13 +13029,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="G275" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="H275" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13079,13 +13055,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="H276" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13105,13 +13081,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="G277" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="H277" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13131,13 +13107,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="G278" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="H278" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13163,7 +13139,7 @@
         <v>1022</v>
       </c>
       <c r="H279" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13183,13 +13159,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="G280" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="H280" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13209,13 +13185,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="G281" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="H281" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13235,13 +13211,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="G282" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="H282" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13267,7 +13243,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13287,13 +13263,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="G284" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="H284" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13313,13 +13289,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="G285" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="H285" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13339,13 +13315,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="G286" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="H286" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13371,7 +13347,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13391,13 +13367,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="G288" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="H288" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13417,13 +13393,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G289" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="H289" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13443,13 +13419,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G290" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="H290" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13469,13 +13445,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1408</v>
+        <v>1368</v>
       </c>
       <c r="G291" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="H291" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13495,13 +13471,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1348</v>
+        <v>1400</v>
       </c>
       <c r="G292" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="H292" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13521,13 +13497,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="G293" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="H293" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13553,7 +13529,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13573,13 +13549,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G295" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="H295" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13605,7 +13581,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13625,13 +13601,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G297" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="H297" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13651,13 +13627,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G298" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="H298" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13683,7 +13659,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13709,7 +13685,7 @@
         <v>951</v>
       </c>
       <c r="H300" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13732,10 +13708,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H301" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13755,13 +13731,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="G302" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="H302" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13781,13 +13757,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="G303" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="H303" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13813,7 +13789,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13839,7 +13815,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13859,13 +13835,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G306" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="H306" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13891,7 +13867,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13911,13 +13887,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="H308" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13937,13 +13913,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="G309" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H309" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13969,7 +13945,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13992,10 +13968,10 @@
         <v>1285</v>
       </c>
       <c r="G311" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="H311" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14021,7 +13997,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14041,13 +14017,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="G313" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="H313" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14073,7 +14049,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14093,13 +14069,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G315" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H315" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14119,13 +14095,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1436</v>
+        <v>1348</v>
       </c>
       <c r="G316" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="H316" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14151,7 +14127,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14177,7 +14153,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14203,7 +14179,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14229,7 +14205,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14249,13 +14225,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G321" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="H321" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14275,13 +14251,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G322" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="H322" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14301,13 +14277,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="G323" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="H323" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14327,13 +14303,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G324" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="H324" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14359,7 +14335,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14385,7 +14361,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14405,13 +14381,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="G327" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="H327" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14431,13 +14407,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G328" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="H328" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14457,13 +14433,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="G329" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="H329" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14483,13 +14459,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="G330" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="H330" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14509,13 +14485,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G331" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="H331" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14535,13 +14511,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G332" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="H332" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14561,13 +14537,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="H333" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14587,13 +14563,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="H334" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14613,13 +14589,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G335" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="H335" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14639,13 +14615,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="G336" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="H336" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14665,13 +14641,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="G337" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="H337" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14691,13 +14667,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="G338" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="H338" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14723,7 +14699,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14746,10 +14722,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="H340" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14769,13 +14745,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="G341" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="H341" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14801,7 +14777,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14821,13 +14797,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="G343" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="H343" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14847,13 +14823,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="G344" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="H344" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14873,13 +14849,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="G345" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="H345" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14905,7 +14881,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14925,13 +14901,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="G347" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="H347" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14957,7 +14933,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14983,7 +14959,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15003,13 +14979,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="G350" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="H350" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15029,13 +15005,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1380</v>
+        <v>1337</v>
       </c>
       <c r="G351" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="H351" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15055,13 +15031,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G352" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="H352" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15081,13 +15057,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1387</v>
+        <v>1440</v>
       </c>
       <c r="G353" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="H353" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15107,13 +15083,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="G354" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="H354" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15133,13 +15109,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G355" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="H355" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15165,7 +15141,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15185,13 +15161,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="G357" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="H357" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15211,13 +15187,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="H358" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15237,13 +15213,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G359" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="H359" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15263,13 +15239,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G360" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="H360" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15289,13 +15265,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G361" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="H361" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15315,13 +15291,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="G362" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="H362" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15341,13 +15317,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G363" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="H363" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15367,13 +15343,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="G364" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="H364" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15393,13 +15369,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="H365" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15425,7 +15401,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15451,7 +15427,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15471,13 +15447,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G368" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="H368" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15497,13 +15473,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="H369" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15523,13 +15499,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1387</v>
+        <v>1440</v>
       </c>
       <c r="G370" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="H370" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15549,13 +15525,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="H371" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15575,13 +15551,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G372" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="H372" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15601,13 +15577,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G373" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="H373" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15630,10 +15606,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="H374" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15653,13 +15629,13 @@
         <v>1285</v>
       </c>
       <c r="F375" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="H375" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15679,13 +15655,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G376" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="H376" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15705,13 +15681,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="G377" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="H377" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15731,13 +15707,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="G378" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="H378" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15757,13 +15733,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="G379" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="H379" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15789,7 +15765,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15809,13 +15785,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="G381" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="H381" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15835,13 +15811,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="G382" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="H382" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15861,13 +15837,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="G383" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="H383" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15887,13 +15863,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1424</v>
+        <v>1447</v>
       </c>
       <c r="G384" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="H384" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15913,13 +15889,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="G385" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="H385" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15939,13 +15915,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="G386" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="H386" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15971,7 +15947,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15991,13 +15967,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1411</v>
+        <v>1440</v>
       </c>
       <c r="G388" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="H388" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16017,13 +15993,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G389" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="H389" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16043,13 +16019,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G390" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="H390" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16069,13 +16045,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="G391" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="H391" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16095,13 +16071,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G392" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="H392" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16127,7 +16103,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16147,13 +16123,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G394" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="H394" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16179,7 +16155,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16199,13 +16175,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G396" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="H396" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16225,13 +16201,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G397" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="H397" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16251,13 +16227,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="G398" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="H398" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16283,7 +16259,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16303,13 +16279,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
       <c r="G400" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="H400" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16329,13 +16305,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1358</v>
+        <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="H401" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16355,13 +16331,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="G402" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="H402" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16381,13 +16357,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="H403" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16407,13 +16383,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G404" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="H404" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16433,13 +16409,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G405" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="H405" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16465,7 +16441,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16485,13 +16461,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="G407" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="H407" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16511,13 +16487,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G408" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="H408" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16537,13 +16513,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1358</v>
+        <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="H409" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16569,7 +16545,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16589,13 +16565,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="G411" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="H411" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16615,13 +16591,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G412" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="H412" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16641,13 +16617,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1460</v>
+        <v>1436</v>
       </c>
       <c r="G413" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="H413" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16667,13 +16643,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G414" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H414" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16693,13 +16669,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="G415" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H415" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16725,7 +16701,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16745,13 +16721,13 @@
         <v>1285</v>
       </c>
       <c r="F417" t="s">
-        <v>1347</v>
+        <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H417" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16771,13 +16747,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G418" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="H418" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16797,13 +16773,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="G419" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="H419" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16823,13 +16799,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="G420" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="H420" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16849,13 +16825,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G421" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="H421" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16875,13 +16851,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1338</v>
+        <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="H422" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16907,7 +16883,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16933,7 +16909,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16953,13 +16929,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G425" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="H425" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16979,13 +16955,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G426" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="H426" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17005,13 +16981,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="G427" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="H427" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17034,10 +17010,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="H428" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17057,13 +17033,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="G429" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="H429" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17083,13 +17059,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G430" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="H430" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17109,13 +17085,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G431" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="H431" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17135,13 +17111,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="G432" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="H432" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17167,7 +17143,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17187,13 +17163,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1462</v>
+        <v>1385</v>
       </c>
       <c r="G434" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="H434" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17213,13 +17189,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="G435" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="H435" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17239,13 +17215,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="H436" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17265,13 +17241,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1350</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="H437" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17297,7 +17273,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17320,10 +17296,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="H439" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17349,7 +17325,7 @@
         <v>1227</v>
       </c>
       <c r="H440" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17369,13 +17345,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G441" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="H441" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17395,13 +17371,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
       <c r="G442" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="H442" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17424,10 +17400,10 @@
         <v>1278</v>
       </c>
       <c r="G443" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="H443" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17447,13 +17423,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="H444" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17473,13 +17449,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="G445" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="H445" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17499,13 +17475,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G446" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="H446" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17525,13 +17501,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="H447" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17551,13 +17527,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="G448" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="H448" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17577,13 +17553,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="G449" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="H449" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17603,13 +17579,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G450" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="H450" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17629,13 +17605,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="G451" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="H451" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17655,13 +17631,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="G452" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="H452" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17681,13 +17657,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="G453" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="H453" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17713,7 +17689,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17733,13 +17709,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="G455" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="H455" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17759,13 +17735,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G456" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="H456" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17785,13 +17761,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="G457" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="H457" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17814,10 +17790,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="H458" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17840,10 +17816,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="H459" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17869,7 +17845,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17889,13 +17865,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="G461" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="H461" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17915,13 +17891,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1421</v>
+        <v>1382</v>
       </c>
       <c r="G462" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="H462" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17944,10 +17920,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="H463" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
   </sheetData>
